--- a/public/DriverFull.xlsx
+++ b/public/DriverFull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\soft-g\backend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D809FBB-1138-4AA2-B6AD-B4C034129ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584347F1-038D-4954-89FA-563E27E6D91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="60" windowWidth="20460" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12202,7 +12202,7 @@
   <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12256,7 +12256,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
